--- a/Fenolic.xlsx
+++ b/Fenolic.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Eranthis\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BFD4B2B-3C8F-4E51-AD25-6146FF4C1B15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="3" r:id="rId1"/>
@@ -14,21 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Trifolin</t>
   </si>
@@ -94,12 +91,15 @@
   </si>
   <si>
     <t>Quercetin-6-O-β-D-xylopyranosyl-β-D-glucopyranoside</t>
+  </si>
+  <si>
+    <t>name</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -160,7 +160,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -356,6 +356,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5A47-498E-BC81-BA57A0546109}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -509,6 +514,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5A47-498E-BC81-BA57A0546109}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -531,6 +541,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -584,7 +595,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -628,7 +638,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvPr id="2" name="Диаграмма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -901,18 +917,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -923,6 +939,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
       <c r="C1" t="s">
         <v>18</v>
       </c>

--- a/Fenolic.xlsx
+++ b/Fenolic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Eranthis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BFD4B2B-3C8F-4E51-AD25-6146FF4C1B15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A57140E-D6CF-412C-AD0E-D22F311910E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -84,9 +84,6 @@
     <t>leaves</t>
   </si>
   <si>
-    <t>Flowers</t>
-  </si>
-  <si>
     <t>Rhamnetin-3-O-xylopyranosyl-glucopyranoside</t>
   </si>
   <si>
@@ -94,6 +91,9 @@
   </si>
   <si>
     <t>name</t>
+  </si>
+  <si>
+    <t>flowers</t>
   </si>
 </sst>
 </file>
@@ -371,7 +371,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Flowers</c:v>
+                  <c:v>flowers</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -928,7 +928,7 @@
   <dimension ref="B1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -940,13 +940,13 @@
   <sheetData>
     <row r="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C1" t="s">
         <v>18</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
@@ -1006,7 +1006,7 @@
     </row>
     <row r="7" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7">
         <v>23500000</v>
@@ -1017,7 +1017,7 @@
     </row>
     <row r="8" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C8">
         <v>224000</v>

--- a/Fenolic.xlsx
+++ b/Fenolic.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Eranthis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF2DA41D-D795-4E7A-8605-AC536CB3D3DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC5FFE87-5FCF-4FE7-93E5-64B93D2A5EAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="3" r:id="rId1"/>
@@ -87,13 +87,13 @@
     <t>Rhamnetin-3-O-xylopyranosyl-glucopyranoside</t>
   </si>
   <si>
-    <t>Quercetin-6-O-β-D-xylopyranosyl-β-D-glucopyranoside</t>
-  </si>
-  <si>
     <t>name</t>
   </si>
   <si>
     <t>flowers</t>
+  </si>
+  <si>
+    <t>Quercetin-6-O-β-xylopyranosyl-β-glucopyranoside</t>
   </si>
 </sst>
 </file>
@@ -425,7 +425,7 @@
   <dimension ref="B1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -437,13 +437,13 @@
   <sheetData>
     <row r="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
         <v>18</v>
       </c>
       <c r="D1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
@@ -591,7 +591,7 @@
     </row>
     <row r="15" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C15">
         <v>224000</v>
